--- a/biology/Zoologie/Fernand_Meunier/Fernand_Meunier.xlsx
+++ b/biology/Zoologie/Fernand_Meunier/Fernand_Meunier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand Anatole Meunier
 Ferdinand Anatole Meunier (né le 23 avril 1868 à Bruxelles ; mort le 13 février 1926 (à 57 ans) à Bonn ) est un entomologiste et paléontologue belge .
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernand Meunier a travaillé comme assistant au Service géologique de Belgique et plus tard comme conservateur au Musée zoologique d'Anvers.
 Il a décrit de nombreuses nouvelles espèces d'insectes de l'ambre de la Baltique ainsi que du gisement fossile connu aujourd'hui sous le nom de gisement fossile de Rott, qui est actuellement attribué chronostratigraphiquement à l'Oligocène supérieur (Chattien). En 1894, il évalue la collection Krantz à Bonn. Il a été professeur et entomologiste de Cologne Georg Statz et après le collectionneur de fossiles Heinrich Bauckhorn de Siegburg, qui a collectionné pendant des années à Rott et a travaillé comme contremaître royal à l'usine royale de projectiles de Wilhelmstraße,
 Entre autres hommages, il nomma la guêpe parasite Polysphincta statzi (Meunier 1923) en l'honneur du professeur et entomologiste de Cologne Georg Statz, la fourmi Formica bauckhorni (Meunier, 1915), la mouche aux longues pattes Hercostomus bauckhorni (Meunier, 1915) et le termite Ulmeriella bauckhorni (Meunier, 1920) en l'honneur du collectionneur de fossiles Heinrich Bauckhorn de Siegburg, qui a collectionné pendant des années à Rott et a travaillé comme contremaître royal à l'usine royale de projectiles de Wilhelmstraße.
 L'entomologiste et paléontologue autrichien Anton Handlirsch était très critique et dédaigneux de ses écrits initiaux et en 1889 a présenté sa vision des méthodes de travail de Meunier en détail et ouvertement. Il a mis en garde les éditeurs et les éditeurs de revues scientifiques contre l'inclusion des écrits de Meunier.
-Fin 1918, Fernand Meunier doit quitter la Belgique à cause de sa germanophilie et s'installe à Bonn[1].
+Fin 1918, Fernand Meunier doit quitter la Belgique à cause de sa germanophilie et s'installe à Bonn.
 Il était membre de la Société scientifique de Bruxelles et depuis 1890 membre de la Société entomologique de France .
-En Allemagne, les originaux des insectes fossiles décrits par Fernand Meunier se trouvent dans la collection originale de l'Institut fédéral des géosciences et des ressources naturelles de Berlin[2].
+En Allemagne, les originaux des insectes fossiles décrits par Fernand Meunier se trouvent dans la collection originale de l'Institut fédéral des géosciences et des ressources naturelles de Berlin.
 Sa collection d'insectes récents avec 13 boîtes d'hyménoptères et 91 boîtes de diptères est passée de la succession de sa veuve en 1932/33, d'abord à l'Association d'histoire naturelle de la Rhénanie prussienne et de la Westphalie à Bonn et en 1936 à l'Institut zoologique de l'Université de Bonn. La collection d'insectes a été détruite lors du bombardement de Bonn en 1945.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Statz a nommé la mouche caddis Phryganea meunieri (Statz 1936) en son honneur en 1936.
 Nicolas Théobald a nommé un hétéroptère fossile Cydnus meunieri (Théobald 1937) et un hyménoptère apocrite fossile Alysia meunieri (Théobald 1937) en son honneur en 1937.
@@ -583,7 +599,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Observations sur quelques insectes fossiles du Musée de Munich. In: Bulletin de la Société Scientifique de Bruxelles, 22, 1898, S. 1–2
